--- a/Statistisk 17-01 kl. 13/Del 2 og del 3 - intelligente systemer ENDELIGE - Kopi.xlsx
+++ b/Statistisk 17-01 kl. 13/Del 2 og del 3 - intelligente systemer ENDELIGE - Kopi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Thygesen\Documents\DTU\3-ugers projekt Jan 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0988da45a29ed05a/02461 Intelligente systemer/3 - ugers/kode/3-ugers-projekt-Ham-n-spam/Statistisk 17-01 kl. 13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF454203-249C-421D-A981-04FD91E9F10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{DF454203-249C-421D-A981-04FD91E9F10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36ADD2EE-5FCE-4CF1-8CC3-3E4DDC23550B}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="73">
   <si>
     <t>Indstilling:</t>
   </si>
@@ -301,6 +303,12 @@
   <si>
     <t>KKN_K</t>
   </si>
+  <si>
+    <t>dvs. y</t>
+  </si>
+  <si>
+    <t>95%CI</t>
+  </si>
 </sst>
 </file>
 
@@ -370,13 +378,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +568,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -857,34 +866,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D2A8BE-00F6-40C0-B481-EF09B922C62E}">
   <dimension ref="A1:BY79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS27" sqref="AS27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.3671875" customWidth="1"/>
-    <col min="4" max="4" width="11.62890625" customWidth="1"/>
-    <col min="8" max="8" width="18.1015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.62890625" customWidth="1"/>
-    <col min="14" max="14" width="10.3671875" customWidth="1"/>
-    <col min="15" max="15" width="11.3671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.15625" customWidth="1"/>
-    <col min="21" max="21" width="24.1015625" customWidth="1"/>
-    <col min="25" max="25" width="14.89453125" customWidth="1"/>
-    <col min="27" max="27" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.3671875" customWidth="1"/>
-    <col min="32" max="32" width="12.1015625" customWidth="1"/>
-    <col min="35" max="35" width="14.3125" customWidth="1"/>
-    <col min="36" max="36" width="7.68359375" customWidth="1"/>
-    <col min="37" max="37" width="9.578125" customWidth="1"/>
-    <col min="38" max="38" width="8.41796875" customWidth="1"/>
-    <col min="39" max="39" width="11.89453125" customWidth="1"/>
-    <col min="40" max="40" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1328125" customWidth="1"/>
+    <col min="21" max="21" width="24.06640625" customWidth="1"/>
+    <col min="25" max="25" width="14.86328125" customWidth="1"/>
+    <col min="27" max="27" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" customWidth="1"/>
+    <col min="32" max="32" width="12.06640625" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" customWidth="1"/>
+    <col min="36" max="36" width="7.6640625" customWidth="1"/>
+    <col min="37" max="37" width="9.59765625" customWidth="1"/>
+    <col min="38" max="38" width="8.3984375" customWidth="1"/>
+    <col min="39" max="39" width="11.86328125" customWidth="1"/>
+    <col min="40" max="40" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:77" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -973,7 +982,7 @@
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1075,7 @@
       <c r="BX2" s="1"/>
       <c r="BY2" s="1"/>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1089,9 @@
       <c r="E3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1183,7 +1194,7 @@
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1309,7 @@
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1424,7 @@
       <c r="BX5" s="1"/>
       <c r="BY5" s="1"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1535,7 @@
       <c r="BX6" s="1"/>
       <c r="BY6" s="1"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -1632,7 +1643,7 @@
       <c r="BX7" s="1"/>
       <c r="BY7" s="1"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -1729,7 +1740,7 @@
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1739,8 +1750,6 @@
         <v>11</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1830,7 +1839,7 @@
       <c r="BX9" s="1"/>
       <c r="BY9" s="1"/>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1845,7 +1854,6 @@
         <f>(B10*B11+2)/(B11+4)</f>
         <v>0.94631285211267613</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>17</v>
@@ -1939,7 +1947,7 @@
       <c r="BX10" s="1"/>
       <c r="BY10" s="1"/>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1955,7 +1963,6 @@
         <f>B11+4</f>
         <v>2272</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>18</v>
@@ -2052,7 +2059,7 @@
       <c r="BX11" s="1"/>
       <c r="BY11" s="1"/>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2181,7 +2188,7 @@
       <c r="BX12" s="1"/>
       <c r="BY12" s="1"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>87</v>
@@ -2303,12 +2310,17 @@
       <c r="BX13" s="1"/>
       <c r="BY13" s="1"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="1">
+        <f>1.96*E12</f>
+        <v>9.2683930620113663E-3</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
@@ -2410,7 +2422,7 @@
       <c r="BX14" s="1"/>
       <c r="BY14" s="1"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2528,7 +2540,7 @@
       <c r="BX15" s="1"/>
       <c r="BY15" s="1"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2643,7 +2655,7 @@
       <c r="BX16" s="1"/>
       <c r="BY16" s="1"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2737,7 +2749,7 @@
       <c r="BX17" s="1"/>
       <c r="BY17" s="1"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2842,7 +2854,7 @@
       <c r="BX18" s="1"/>
       <c r="BY18" s="1"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2949,7 +2961,7 @@
       <c r="BX19" s="1"/>
       <c r="BY19" s="1"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -3055,7 +3067,7 @@
       <c r="BX20" s="1"/>
       <c r="BY20" s="1"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3166,7 +3178,7 @@
       <c r="BX21" s="1"/>
       <c r="BY21" s="1"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>12</v>
@@ -3284,7 +3296,7 @@
       <c r="BX22" s="1"/>
       <c r="BY22" s="1"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3392,7 +3404,7 @@
       <c r="BX23" s="1"/>
       <c r="BY23" s="1"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3487,7 +3499,7 @@
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3594,7 +3606,7 @@
       <c r="BX25" s="1"/>
       <c r="BY25" s="1"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3692,7 +3704,7 @@
       <c r="BX26" s="1"/>
       <c r="BY26" s="1"/>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
@@ -3785,7 +3797,7 @@
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -3882,7 +3894,7 @@
       <c r="BX28" s="1"/>
       <c r="BY28" s="1"/>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3984,7 +3996,7 @@
       <c r="BX29" s="1"/>
       <c r="BY29" s="1"/>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -4083,7 +4095,7 @@
       <c r="BX30" s="1"/>
       <c r="BY30" s="1"/>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -4188,7 +4200,7 @@
       <c r="BX31" s="1"/>
       <c r="BY31" s="1"/>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>39</v>
@@ -4294,7 +4306,7 @@
       <c r="BX32" s="1"/>
       <c r="BY32" s="1"/>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4387,7 +4399,7 @@
       <c r="BX33" s="1"/>
       <c r="BY33" s="1"/>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4487,7 +4499,7 @@
       <c r="BX34" s="1"/>
       <c r="BY34" s="1"/>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4585,7 +4597,7 @@
       <c r="BX35" s="1"/>
       <c r="BY35" s="1"/>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4664,7 +4676,7 @@
       <c r="BX36" s="1"/>
       <c r="BY36" s="1"/>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -4756,7 +4768,7 @@
       <c r="BX37" s="1"/>
       <c r="BY37" s="1"/>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4858,7 +4870,7 @@
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -4957,7 +4969,7 @@
       <c r="BX39" s="1"/>
       <c r="BY39" s="1"/>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -5055,7 +5067,7 @@
       <c r="BX40" s="1"/>
       <c r="BY40" s="1"/>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>7</v>
@@ -5156,7 +5168,7 @@
       <c r="BX41" s="1"/>
       <c r="BY41" s="1"/>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5249,7 +5261,7 @@
       <c r="BX42" s="1"/>
       <c r="BY42" s="1"/>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5342,7 +5354,7 @@
       <c r="BX43" s="1"/>
       <c r="BY43" s="1"/>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5437,7 +5449,7 @@
       <c r="BX44" s="1"/>
       <c r="BY44" s="1"/>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5525,7 +5537,7 @@
       <c r="BX45" s="1"/>
       <c r="BY45" s="1"/>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5604,7 +5616,7 @@
       <c r="BX46" s="1"/>
       <c r="BY46" s="1"/>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5688,7 +5700,7 @@
       <c r="BX47" s="1"/>
       <c r="BY47" s="1"/>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5772,7 +5784,7 @@
       <c r="BX48" s="1"/>
       <c r="BY48" s="1"/>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5851,7 +5863,7 @@
       <c r="BX49" s="1"/>
       <c r="BY49" s="1"/>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5934,7 +5946,7 @@
       <c r="BX50" s="1"/>
       <c r="BY50" s="1"/>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6022,7 +6034,7 @@
       <c r="BX51" s="1"/>
       <c r="BY51" s="1"/>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6110,7 +6122,7 @@
       <c r="BX52" s="1"/>
       <c r="BY52" s="1"/>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -6204,7 +6216,7 @@
       <c r="BX53" s="1"/>
       <c r="BY53" s="1"/>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -6296,7 +6308,7 @@
       <c r="BX54" s="1"/>
       <c r="BY54" s="1"/>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -6379,7 +6391,7 @@
       <c r="BX55" s="1"/>
       <c r="BY55" s="1"/>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
@@ -6469,7 +6481,7 @@
       <c r="BX56" s="1"/>
       <c r="BY56" s="1"/>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>301</v>
@@ -6557,7 +6569,7 @@
       <c r="BX57" s="1"/>
       <c r="BY57" s="1"/>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6636,7 +6648,7 @@
       <c r="BX58" s="1"/>
       <c r="BY58" s="1"/>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>51</v>
       </c>
@@ -6719,7 +6731,7 @@
       <c r="BX59" s="1"/>
       <c r="BY59" s="1"/>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -6802,7 +6814,7 @@
       <c r="BX60" s="1"/>
       <c r="BY60" s="1"/>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -6885,7 +6897,7 @@
       <c r="BX61" s="1"/>
       <c r="BY61" s="1"/>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -6970,7 +6982,7 @@
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>10</v>
@@ -7053,7 +7065,7 @@
       <c r="BX63" s="1"/>
       <c r="BY63" s="1"/>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -7132,7 +7144,7 @@
       <c r="BX64" s="1"/>
       <c r="BY64" s="1"/>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -7211,7 +7223,7 @@
       <c r="BX65" s="1"/>
       <c r="BY65" s="1"/>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -7290,7 +7302,7 @@
       <c r="BX66" s="1"/>
       <c r="BY66" s="1"/>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -7369,7 +7381,7 @@
       <c r="BX67" s="1"/>
       <c r="BY67" s="1"/>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -7448,7 +7460,7 @@
       <c r="BX68" s="1"/>
       <c r="BY68" s="1"/>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -7527,7 +7539,7 @@
       <c r="BX69" s="1"/>
       <c r="BY69" s="1"/>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -7606,7 +7618,7 @@
       <c r="BX70" s="1"/>
       <c r="BY70" s="1"/>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -7685,7 +7697,7 @@
       <c r="BX71" s="1"/>
       <c r="BY71" s="1"/>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -7764,7 +7776,7 @@
       <c r="BX72" s="1"/>
       <c r="BY72" s="1"/>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -7843,7 +7855,7 @@
       <c r="BX73" s="1"/>
       <c r="BY73" s="1"/>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -7922,7 +7934,7 @@
       <c r="BX74" s="1"/>
       <c r="BY74" s="1"/>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -8001,7 +8013,7 @@
       <c r="BX75" s="1"/>
       <c r="BY75" s="1"/>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -8080,7 +8092,7 @@
       <c r="BX76" s="1"/>
       <c r="BY76" s="1"/>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -8159,7 +8171,7 @@
       <c r="BX77" s="1"/>
       <c r="BY77" s="1"/>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -8238,7 +8250,7 @@
       <c r="BX78" s="1"/>
       <c r="BY78" s="1"/>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
